--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>11.9118855968255</v>
+        <v>0.28217</v>
       </c>
       <c r="H2">
-        <v>11.9118855968255</v>
+        <v>0.84651</v>
       </c>
       <c r="I2">
-        <v>0.236637183892171</v>
+        <v>0.005448693042781856</v>
       </c>
       <c r="J2">
-        <v>0.236637183892171</v>
+        <v>0.005502888761448157</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N2">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O2">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P2">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q2">
-        <v>69.09565478268648</v>
+        <v>2.388465305496667</v>
       </c>
       <c r="R2">
-        <v>69.09565478268648</v>
+        <v>21.49618774947</v>
       </c>
       <c r="S2">
-        <v>0.007953981982052091</v>
+        <v>0.0002512103655006039</v>
       </c>
       <c r="T2">
-        <v>0.007953981982052091</v>
+        <v>0.0002661493440120621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>11.9118855968255</v>
+        <v>0.28217</v>
       </c>
       <c r="H3">
-        <v>11.9118855968255</v>
+        <v>0.84651</v>
       </c>
       <c r="I3">
-        <v>0.236637183892171</v>
+        <v>0.005448693042781856</v>
       </c>
       <c r="J3">
-        <v>0.236637183892171</v>
+        <v>0.005502888761448157</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N3">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P3">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q3">
-        <v>426.0567350722811</v>
+        <v>11.06808627073333</v>
       </c>
       <c r="R3">
-        <v>426.0567350722811</v>
+        <v>99.6127764366</v>
       </c>
       <c r="S3">
-        <v>0.04904574107814982</v>
+        <v>0.001164102317527684</v>
       </c>
       <c r="T3">
-        <v>0.04904574107814982</v>
+        <v>0.001233329156444261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>11.9118855968255</v>
+        <v>0.28217</v>
       </c>
       <c r="H4">
-        <v>11.9118855968255</v>
+        <v>0.84651</v>
       </c>
       <c r="I4">
-        <v>0.236637183892171</v>
+        <v>0.005448693042781856</v>
       </c>
       <c r="J4">
-        <v>0.236637183892171</v>
+        <v>0.005502888761448157</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N4">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O4">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P4">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q4">
-        <v>613.6391521974663</v>
+        <v>15.59571554823333</v>
       </c>
       <c r="R4">
-        <v>613.6391521974663</v>
+        <v>140.3614399341</v>
       </c>
       <c r="S4">
-        <v>0.07063938789510373</v>
+        <v>0.00164030241264085</v>
       </c>
       <c r="T4">
-        <v>0.07063938789510373</v>
+        <v>0.001737847919753596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>11.9118855968255</v>
+        <v>0.28217</v>
       </c>
       <c r="H5">
-        <v>11.9118855968255</v>
+        <v>0.84651</v>
       </c>
       <c r="I5">
-        <v>0.236637183892171</v>
+        <v>0.005448693042781856</v>
       </c>
       <c r="J5">
-        <v>0.236637183892171</v>
+        <v>0.005502888761448157</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N5">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O5">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P5">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q5">
-        <v>650.5003982306308</v>
+        <v>15.48856487677333</v>
       </c>
       <c r="R5">
-        <v>650.5003982306308</v>
+        <v>139.39708389096</v>
       </c>
       <c r="S5">
-        <v>0.07488268926775742</v>
+        <v>0.001629032682542968</v>
       </c>
       <c r="T5">
-        <v>0.07488268926775742</v>
+        <v>0.001725908001324008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>11.9118855968255</v>
+        <v>0.28217</v>
       </c>
       <c r="H6">
-        <v>11.9118855968255</v>
+        <v>0.84651</v>
       </c>
       <c r="I6">
-        <v>0.236637183892171</v>
+        <v>0.005448693042781856</v>
       </c>
       <c r="J6">
-        <v>0.236637183892171</v>
+        <v>0.005502888761448157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N6">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O6">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P6">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q6">
-        <v>296.3578215412842</v>
+        <v>7.264412050104999</v>
       </c>
       <c r="R6">
-        <v>296.3578215412842</v>
+        <v>43.58647230063</v>
       </c>
       <c r="S6">
-        <v>0.03411538366910796</v>
+        <v>0.0007640452645697497</v>
       </c>
       <c r="T6">
-        <v>0.03411538366910796</v>
+        <v>0.00053965433991423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.78062200576</v>
+        <v>12.78884966666667</v>
       </c>
       <c r="H7">
-        <v>16.78062200576</v>
+        <v>38.366549</v>
       </c>
       <c r="I7">
-        <v>0.3333577293976266</v>
+        <v>0.2469522493672245</v>
       </c>
       <c r="J7">
-        <v>0.3333577293976266</v>
+        <v>0.24940857320959</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N7">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O7">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P7">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q7">
-        <v>97.33707192904384</v>
+        <v>108.2529103946059</v>
       </c>
       <c r="R7">
-        <v>97.33707192904384</v>
+        <v>974.276193551453</v>
       </c>
       <c r="S7">
-        <v>0.01120500730102816</v>
+        <v>0.01138565970548113</v>
       </c>
       <c r="T7">
-        <v>0.01120500730102816</v>
+        <v>0.01206274213932102</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.78062200576</v>
+        <v>12.78884966666667</v>
       </c>
       <c r="H8">
-        <v>16.78062200576</v>
+        <v>38.366549</v>
       </c>
       <c r="I8">
-        <v>0.3333577293976266</v>
+        <v>0.2469522493672245</v>
       </c>
       <c r="J8">
-        <v>0.3333577293976266</v>
+        <v>0.24940857320959</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N8">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P8">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q8">
-        <v>600.1985971189573</v>
+        <v>501.6411787720378</v>
       </c>
       <c r="R8">
-        <v>600.1985971189573</v>
+        <v>4514.77060894834</v>
       </c>
       <c r="S8">
-        <v>0.06909217145639321</v>
+        <v>0.05276085174001423</v>
       </c>
       <c r="T8">
-        <v>0.06909217145639321</v>
+        <v>0.05589843417543491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.78062200576</v>
+        <v>12.78884966666667</v>
       </c>
       <c r="H9">
-        <v>16.78062200576</v>
+        <v>38.366549</v>
       </c>
       <c r="I9">
-        <v>0.3333577293976266</v>
+        <v>0.2469522493672245</v>
       </c>
       <c r="J9">
-        <v>0.3333577293976266</v>
+        <v>0.24940857320959</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N9">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O9">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P9">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q9">
-        <v>864.4514403080663</v>
+        <v>706.8478633109544</v>
       </c>
       <c r="R9">
-        <v>864.4514403080663</v>
+        <v>6361.63076979859</v>
       </c>
       <c r="S9">
-        <v>0.0995117739631326</v>
+        <v>0.07434376781066188</v>
       </c>
       <c r="T9">
-        <v>0.0995117739631326</v>
+        <v>0.07876484314157471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.78062200576</v>
+        <v>12.78884966666667</v>
       </c>
       <c r="H10">
-        <v>16.78062200576</v>
+        <v>38.366549</v>
       </c>
       <c r="I10">
-        <v>0.3333577293976266</v>
+        <v>0.2469522493672245</v>
       </c>
       <c r="J10">
-        <v>0.3333577293976266</v>
+        <v>0.24940857320959</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N10">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O10">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P10">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q10">
-        <v>916.3789568474039</v>
+        <v>701.9914511162337</v>
       </c>
       <c r="R10">
-        <v>916.3789568474039</v>
+        <v>6317.923060046104</v>
       </c>
       <c r="S10">
-        <v>0.1054894368454894</v>
+        <v>0.07383298748672341</v>
       </c>
       <c r="T10">
-        <v>0.1054894368454894</v>
+        <v>0.07822368773232403</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.78062200576</v>
+        <v>12.78884966666667</v>
       </c>
       <c r="H11">
-        <v>16.78062200576</v>
+        <v>38.366549</v>
       </c>
       <c r="I11">
-        <v>0.3333577293976266</v>
+        <v>0.2469522493672245</v>
       </c>
       <c r="J11">
-        <v>0.3333577293976266</v>
+        <v>0.24940857320959</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N11">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O11">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P11">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q11">
-        <v>417.4879402015147</v>
+        <v>329.2464600259228</v>
       </c>
       <c r="R11">
-        <v>417.4879402015147</v>
+        <v>1975.478760155537</v>
       </c>
       <c r="S11">
-        <v>0.04805933983158324</v>
+        <v>0.03462898262434379</v>
       </c>
       <c r="T11">
-        <v>0.04805933983158324</v>
+        <v>0.02445886602093532</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.1236469129632</v>
+        <v>17.044498</v>
       </c>
       <c r="H12">
-        <v>20.1236469129632</v>
+        <v>51.133494</v>
       </c>
       <c r="I12">
-        <v>0.3997690454979738</v>
+        <v>0.3291286730350826</v>
       </c>
       <c r="J12">
-        <v>0.3997690454979738</v>
+        <v>0.3324023690992153</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N12">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O12">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P12">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q12">
-        <v>116.7285018618156</v>
+        <v>144.2754088762354</v>
       </c>
       <c r="R12">
-        <v>116.7285018618156</v>
+        <v>1298.478679886118</v>
       </c>
       <c r="S12">
-        <v>0.01343726177168324</v>
+        <v>0.01517437917692991</v>
       </c>
       <c r="T12">
-        <v>0.01343726177168324</v>
+        <v>0.01607676918777654</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.1236469129632</v>
+        <v>17.044498</v>
       </c>
       <c r="H13">
-        <v>20.1236469129632</v>
+        <v>51.133494</v>
       </c>
       <c r="I13">
-        <v>0.3997690454979738</v>
+        <v>0.3291286730350826</v>
       </c>
       <c r="J13">
-        <v>0.3997690454979738</v>
+        <v>0.3324023690992153</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N13">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P13">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q13">
-        <v>719.7697821887576</v>
+        <v>668.5685023402267</v>
       </c>
       <c r="R13">
-        <v>719.7697821887576</v>
+        <v>6017.11652106204</v>
       </c>
       <c r="S13">
-        <v>0.08285667017355594</v>
+        <v>0.07031767949426224</v>
       </c>
       <c r="T13">
-        <v>0.08285667017355594</v>
+        <v>0.07449933139722824</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.1236469129632</v>
+        <v>17.044498</v>
       </c>
       <c r="H14">
-        <v>20.1236469129632</v>
+        <v>51.133494</v>
       </c>
       <c r="I14">
-        <v>0.3997690454979738</v>
+        <v>0.3291286730350826</v>
       </c>
       <c r="J14">
-        <v>0.3997690454979738</v>
+        <v>0.3324023690992153</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N14">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O14">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P14">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q14">
-        <v>1036.666909736171</v>
+        <v>942.0602561237267</v>
       </c>
       <c r="R14">
-        <v>1036.666909736171</v>
+        <v>8478.54230511354</v>
       </c>
       <c r="S14">
-        <v>0.1193364466602792</v>
+        <v>0.09908257855779191</v>
       </c>
       <c r="T14">
-        <v>0.1193364466602792</v>
+        <v>0.1049748215350474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.1236469129632</v>
+        <v>17.044498</v>
       </c>
       <c r="H15">
-        <v>20.1236469129632</v>
+        <v>51.133494</v>
       </c>
       <c r="I15">
-        <v>0.3997690454979738</v>
+        <v>0.3291286730350826</v>
       </c>
       <c r="J15">
-        <v>0.3997690454979738</v>
+        <v>0.3324023690992153</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N15">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O15">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P15">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q15">
-        <v>1098.939393291667</v>
+        <v>935.5878125422026</v>
       </c>
       <c r="R15">
-        <v>1098.939393291667</v>
+        <v>8420.290312879824</v>
       </c>
       <c r="S15">
-        <v>0.1265049757629538</v>
+        <v>0.09840182974638785</v>
       </c>
       <c r="T15">
-        <v>0.1265049757629538</v>
+        <v>0.104253589951983</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.1236469129632</v>
+        <v>17.044498</v>
       </c>
       <c r="H16">
-        <v>20.1236469129632</v>
+        <v>51.133494</v>
       </c>
       <c r="I16">
-        <v>0.3997690454979738</v>
+        <v>0.3291286730350826</v>
       </c>
       <c r="J16">
-        <v>0.3997690454979738</v>
+        <v>0.3324023690992153</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N16">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O16">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P16">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q16">
-        <v>500.6596237107169</v>
+        <v>438.807302899637</v>
       </c>
       <c r="R16">
-        <v>500.6596237107169</v>
+        <v>2632.843817397822</v>
       </c>
       <c r="S16">
-        <v>0.05763369112950159</v>
+        <v>0.0461522060597107</v>
       </c>
       <c r="T16">
-        <v>0.05763369112950159</v>
+        <v>0.03259785702718011</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.52202734116835</v>
+        <v>20.14113366666666</v>
       </c>
       <c r="H17">
-        <v>1.52202734116835</v>
+        <v>60.423401</v>
       </c>
       <c r="I17">
-        <v>0.0302360412122285</v>
+        <v>0.3889246017766101</v>
       </c>
       <c r="J17">
-        <v>0.0302360412122285</v>
+        <v>0.3927930612649294</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N17">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O17">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P17">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q17">
-        <v>8.828617004448477</v>
+        <v>170.4872912648552</v>
       </c>
       <c r="R17">
-        <v>8.828617004448477</v>
+        <v>1534.385621383697</v>
       </c>
       <c r="S17">
-        <v>0.001016310805660356</v>
+        <v>0.01793125261367209</v>
       </c>
       <c r="T17">
-        <v>0.001016310805660356</v>
+        <v>0.01899758837949674</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.52202734116835</v>
+        <v>20.14113366666666</v>
       </c>
       <c r="H18">
-        <v>1.52202734116835</v>
+        <v>60.423401</v>
       </c>
       <c r="I18">
-        <v>0.0302360412122285</v>
+        <v>0.3889246017766101</v>
       </c>
       <c r="J18">
-        <v>0.0302360412122285</v>
+        <v>0.3927930612649294</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N18">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P18">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q18">
-        <v>54.43890426900577</v>
+        <v>790.0336854131845</v>
       </c>
       <c r="R18">
-        <v>54.43890426900577</v>
+        <v>7110.30316871866</v>
       </c>
       <c r="S18">
-        <v>0.006266762577765315</v>
+        <v>0.08309295948896596</v>
       </c>
       <c r="T18">
-        <v>0.006266762577765315</v>
+        <v>0.08803433176787434</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.52202734116835</v>
+        <v>20.14113366666666</v>
       </c>
       <c r="H19">
-        <v>1.52202734116835</v>
+        <v>60.423401</v>
       </c>
       <c r="I19">
-        <v>0.0302360412122285</v>
+        <v>0.3889246017766101</v>
       </c>
       <c r="J19">
-        <v>0.0302360412122285</v>
+        <v>0.3927930612649294</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N19">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O19">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P19">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q19">
-        <v>78.4070296565653</v>
+        <v>1113.213280945101</v>
       </c>
       <c r="R19">
-        <v>78.4070296565653</v>
+        <v>10018.91952850591</v>
       </c>
       <c r="S19">
-        <v>0.009025865709153306</v>
+        <v>0.1170838506813452</v>
       </c>
       <c r="T19">
-        <v>0.009025865709153306</v>
+        <v>0.1240465933447772</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.52202734116835</v>
+        <v>20.14113366666666</v>
       </c>
       <c r="H20">
-        <v>1.52202734116835</v>
+        <v>60.423401</v>
       </c>
       <c r="I20">
-        <v>0.0302360412122285</v>
+        <v>0.3889246017766101</v>
       </c>
       <c r="J20">
-        <v>0.0302360412122285</v>
+        <v>0.3927930612649294</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N20">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O20">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P20">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q20">
-        <v>83.11693253768107</v>
+        <v>1105.564927128788</v>
       </c>
       <c r="R20">
-        <v>83.11693253768107</v>
+        <v>9950.084344159095</v>
       </c>
       <c r="S20">
-        <v>0.009568048611557713</v>
+        <v>0.1162794237745561</v>
       </c>
       <c r="T20">
-        <v>0.009568048611557713</v>
+        <v>0.1231943287771073</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.14113366666666</v>
+      </c>
+      <c r="H21">
+        <v>60.423401</v>
+      </c>
+      <c r="I21">
+        <v>0.3889246017766101</v>
+      </c>
+      <c r="J21">
+        <v>0.3927930612649294</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>25.7448065</v>
+      </c>
+      <c r="N21">
+        <v>51.489613</v>
+      </c>
+      <c r="O21">
+        <v>0.1402254189345309</v>
+      </c>
+      <c r="P21">
+        <v>0.09806746298324462</v>
+      </c>
+      <c r="Q21">
+        <v>518.5295889389688</v>
+      </c>
+      <c r="R21">
+        <v>3111.177533633813</v>
+      </c>
+      <c r="S21">
+        <v>0.05453711521807075</v>
+      </c>
+      <c r="T21">
+        <v>0.0385202189956738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.5300795</v>
+      </c>
+      <c r="H22">
+        <v>3.060159</v>
+      </c>
+      <c r="I22">
+        <v>0.02954578277830082</v>
+      </c>
+      <c r="J22">
+        <v>0.01989310766481723</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.464632333333334</v>
+      </c>
+      <c r="N22">
+        <v>25.393897</v>
+      </c>
+      <c r="O22">
+        <v>0.04610470135281236</v>
+      </c>
+      <c r="P22">
+        <v>0.0483653868994476</v>
+      </c>
+      <c r="Q22">
+        <v>12.9515604082705</v>
+      </c>
+      <c r="R22">
+        <v>77.70936244962301</v>
+      </c>
+      <c r="S22">
+        <v>0.001362199491228626</v>
+      </c>
+      <c r="T22">
+        <v>0.0009621378488412519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.5300795</v>
+      </c>
+      <c r="H23">
+        <v>3.060159</v>
+      </c>
+      <c r="I23">
+        <v>0.02954578277830082</v>
+      </c>
+      <c r="J23">
+        <v>0.01989310766481723</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>39.22488666666667</v>
+      </c>
+      <c r="N23">
+        <v>117.67466</v>
+      </c>
+      <c r="O23">
+        <v>0.2136479901487249</v>
+      </c>
+      <c r="P23">
+        <v>0.2241239483314023</v>
+      </c>
+      <c r="Q23">
+        <v>60.01719497849</v>
+      </c>
+      <c r="R23">
+        <v>360.10316987094</v>
+      </c>
+      <c r="S23">
+        <v>0.006312397107954779</v>
+      </c>
+      <c r="T23">
+        <v>0.004458521834420519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.5300795</v>
+      </c>
+      <c r="H24">
+        <v>3.060159</v>
+      </c>
+      <c r="I24">
+        <v>0.02954578277830082</v>
+      </c>
+      <c r="J24">
+        <v>0.01989310766481723</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>55.27063666666667</v>
+      </c>
+      <c r="N24">
+        <v>165.81191</v>
+      </c>
+      <c r="O24">
+        <v>0.3010451129769252</v>
+      </c>
+      <c r="P24">
+        <v>0.3158064782135008</v>
+      </c>
+      <c r="Q24">
+        <v>84.568468115615</v>
+      </c>
+      <c r="R24">
+        <v>507.4108086936901</v>
+      </c>
+      <c r="S24">
+        <v>0.008894613514485259</v>
+      </c>
+      <c r="T24">
+        <v>0.006282372272347929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.52202734116835</v>
-      </c>
-      <c r="H21">
-        <v>1.52202734116835</v>
-      </c>
-      <c r="I21">
-        <v>0.0302360412122285</v>
-      </c>
-      <c r="J21">
-        <v>0.0302360412122285</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.8791695598775</v>
-      </c>
-      <c r="N21">
-        <v>24.8791695598775</v>
-      </c>
-      <c r="O21">
-        <v>0.1441674681382846</v>
-      </c>
-      <c r="P21">
-        <v>0.1441674681382846</v>
-      </c>
-      <c r="Q21">
-        <v>37.8667762956969</v>
-      </c>
-      <c r="R21">
-        <v>37.8667762956969</v>
-      </c>
-      <c r="S21">
-        <v>0.004359053508091813</v>
-      </c>
-      <c r="T21">
-        <v>0.004359053508091813</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.5300795</v>
+      </c>
+      <c r="H25">
+        <v>3.060159</v>
+      </c>
+      <c r="I25">
+        <v>0.02954578277830082</v>
+      </c>
+      <c r="J25">
+        <v>0.01989310766481723</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>54.89089866666666</v>
+      </c>
+      <c r="N25">
+        <v>164.672696</v>
+      </c>
+      <c r="O25">
+        <v>0.2989767765870066</v>
+      </c>
+      <c r="P25">
+        <v>0.3136367235724047</v>
+      </c>
+      <c r="Q25">
+        <v>83.987438786444</v>
+      </c>
+      <c r="R25">
+        <v>503.924632718664</v>
+      </c>
+      <c r="S25">
+        <v>0.008833502896796271</v>
+      </c>
+      <c r="T25">
+        <v>0.006239209109666366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.5300795</v>
+      </c>
+      <c r="H26">
+        <v>3.060159</v>
+      </c>
+      <c r="I26">
+        <v>0.02954578277830082</v>
+      </c>
+      <c r="J26">
+        <v>0.01989310766481723</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.7448065</v>
+      </c>
+      <c r="N26">
+        <v>51.489613</v>
+      </c>
+      <c r="O26">
+        <v>0.1402254189345309</v>
+      </c>
+      <c r="P26">
+        <v>0.09806746298324462</v>
+      </c>
+      <c r="Q26">
+        <v>39.39160065711675</v>
+      </c>
+      <c r="R26">
+        <v>157.566402628467</v>
+      </c>
+      <c r="S26">
+        <v>0.00414306976783588</v>
+      </c>
+      <c r="T26">
+        <v>0.001950866599541163</v>
       </c>
     </row>
   </sheetData>
